--- a/biology/Microbiologie/Freia_(protiste)/Freia_(protiste).xlsx
+++ b/biology/Microbiologie/Freia_(protiste)/Freia_(protiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Freia est un genre de Ciliés de la famille des Folliculinidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 octobre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 octobre 2023) :
 Freia aculeata Claparède &amp; Lachmann, 1858
 Freia americana</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit en 1858 par les biologistes suisses René-Édouard Claparède et Johannes Lachmann (d), avec trois espèces[2] : Freia elegans (synonyme de Halofolliculina elegans[3]), Freia aculeata (nom valide) et Freia ampulla (synonyme de Eufolliculina moebiusi[4]).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit en 1858 par les biologistes suisses René-Édouard Claparède et Johannes Lachmann (d), avec trois espèces : Freia elegans (synonyme de Halofolliculina elegans), Freia aculeata (nom valide) et Freia ampulla (synonyme de Eufolliculina moebiusi).
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Édouard Claparède et Johannes Lachmann, « Études sur les infusoires et les rhizopodes », Mémoires de l'Institut National Genevois, Genève, vol. 6,‎ 1858, p. 217 (OCLC 31896870, DOI 10.5962/BHL.TITLE.106816, lire en ligne )</t>
         </is>
